--- a/config_11.17/game_enter_btn_config.xlsx
+++ b/config_11.17/game_enter_btn_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="326">
   <si>
     <t>id|行号</t>
   </si>
@@ -1200,10 +1200,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>40#43#79#88#8#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>92#84#42#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1432,6 +1428,34 @@
   </si>
   <si>
     <t>69#73#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_035_ybwl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-精彩活动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-获取金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_jchd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_hqjb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#79#88#8#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1633,7 +1657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1689,6 +1713,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2026,7 +2053,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2372,7 +2399,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2455,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2438,7 +2465,7 @@
     <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2460,7 +2487,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2482,7 +2509,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2513,10 +2540,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2524,10 +2551,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2535,10 +2562,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2605,7 +2632,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2716,7 +2743,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2780,7 +2807,7 @@
         <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2845,7 @@
         <v>237</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2853,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2921,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2948,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2932,7 +2959,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2943,13 +2970,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomRight" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2967,7 +2994,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -3001,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -4361,7 +4388,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4616,7 +4643,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4625,7 +4652,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4633,7 +4660,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4642,7 +4669,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4650,7 +4677,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4659,7 +4686,7 @@
         <v>99</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4667,7 +4694,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4676,7 +4703,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4684,7 +4711,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4693,7 +4720,7 @@
         <v>101</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4701,7 +4728,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4710,7 +4737,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4718,7 +4745,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4727,7 +4754,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4735,7 +4762,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4744,7 +4771,7 @@
         <v>104</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4752,7 +4779,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4761,7 +4788,7 @@
         <v>105</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4769,7 +4796,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4778,7 +4805,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4786,7 +4813,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4795,7 +4822,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -4803,7 +4830,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4812,7 +4839,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4820,7 +4847,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4829,7 +4856,58 @@
         <v>109</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>110</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>111</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>112</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +4958,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4955,7 +5033,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5019,7 +5097,7 @@
         <v>241</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5065,7 +5143,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5076,7 +5154,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5152,10 +5230,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5208,7 +5286,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!D2</f>
@@ -5227,7 +5305,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -5250,7 +5328,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -6339,7 +6417,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.17/game_enter_btn_config.xlsx
+++ b/config_11.17/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="328">
   <si>
     <t>id|行号</t>
   </si>
@@ -1200,10 +1200,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>92#84#42#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_028_mfhf",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1456,6 +1452,18 @@
   </si>
   <si>
     <t>111#112#79#88#8#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_bottom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>92#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110#84#42#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2053,7 +2061,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2399,7 +2407,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2454,7 +2462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2487,7 +2495,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2509,7 +2517,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2540,10 +2548,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2551,10 +2559,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2562,10 +2570,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2640,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2743,7 +2751,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2807,7 +2815,7 @@
         <v>236</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2845,7 +2853,7 @@
         <v>237</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2880,10 +2888,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2921,7 +2929,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2948,7 +2956,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2959,7 +2967,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2994,7 +3002,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -3028,7 +3036,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -4388,7 +4396,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4643,7 +4651,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4652,7 +4660,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4660,7 +4668,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4669,7 +4677,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4677,7 +4685,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4686,7 +4694,7 @@
         <v>99</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4694,7 +4702,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4703,7 +4711,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4711,7 +4719,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4720,7 +4728,7 @@
         <v>101</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4728,7 +4736,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4737,7 +4745,7 @@
         <v>102</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4745,7 +4753,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4754,7 +4762,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4762,7 +4770,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4771,7 +4779,7 @@
         <v>104</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4779,7 +4787,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4788,7 +4796,7 @@
         <v>105</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4796,7 +4804,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4805,7 +4813,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4813,7 +4821,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4822,7 +4830,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -4830,7 +4838,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4839,7 +4847,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4847,7 +4855,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4856,7 +4864,7 @@
         <v>109</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4864,7 +4872,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4873,7 +4881,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4881,7 +4889,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4890,7 +4898,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4898,7 +4906,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4907,7 +4915,7 @@
         <v>112</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4958,7 +4966,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5033,7 +5041,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5097,7 +5105,7 @@
         <v>241</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5143,7 +5151,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5154,7 +5162,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5230,10 +5238,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5247,8 +5255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5286,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!D2</f>
@@ -5305,7 +5313,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -5328,7 +5336,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -5396,8 +5404,15 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!D8</f>
         <v>7</v>
@@ -6417,7 +6432,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.17/game_enter_btn_config.xlsx
+++ b/config_11.17/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="328">
   <si>
     <t>id|行号</t>
   </si>
@@ -1443,10 +1443,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#79#88#8#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>left_bottom</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1466,7 +1462,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>103#87#100;102;11;93;94#36;113;89#</t>
+    <t>111#112#53#79#36;113;89;11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2465,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2498,7 +2494,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2519,9 +2515,7 @@
       <c r="B4" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>328</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2564,7 +2558,7 @@
       <c r="B8" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>311</v>
       </c>
     </row>
@@ -2984,10 +2978,10 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="A54" sqref="A44:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4935,7 +4929,7 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5275,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="D36 C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5333,7 +5327,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -5356,7 +5350,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -5428,10 +5422,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!D8</f>

--- a/config_11.17/game_enter_btn_config.xlsx
+++ b/config_11.17/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="330">
   <si>
     <t>id|行号</t>
   </si>
@@ -1451,10 +1451,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>110#84#42#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>新人七天乐（旧）</t>
   </si>
   <si>
@@ -1463,6 +1459,18 @@
   </si>
   <si>
     <t>111#112#53#79#36;113;89;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_035_jhs",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110#84#114#42#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2461,7 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2494,7 +2502,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2975,13 +2983,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A54" sqref="A44:XFD54"/>
+      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4929,7 +4937,24 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5269,8 +5294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5327,7 +5352,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -5350,7 +5375,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>

--- a/config_11.17/game_enter_btn_config.xlsx
+++ b/config_11.17/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="331">
   <si>
     <t>id|行号</t>
   </si>
@@ -1471,6 +1471,10 @@
   </si>
   <si>
     <t>110#84#114#42#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrqtl_old",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2985,11 +2989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
+      <selection pane="bottomRight" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4928,7 +4932,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5294,7 +5298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/config_11.17/game_enter_btn_config.xlsx
+++ b/config_11.17/game_enter_btn_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="329">
   <si>
     <t>id|行号</t>
   </si>
@@ -1367,14 +1367,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>36;89;105#97;100;102;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#87#100;102;11;93;94#36;89#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>16;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1464,6 +1456,17 @@
   </si>
   <si>
     <t>110#84#42#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（旧）</t>
+  </si>
+  <si>
+    <t>36;113;89;105#97;100;102;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#87#100;102;11;93;94#36;113;89#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2061,7 +2064,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2462,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2495,7 +2498,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2517,7 +2520,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2548,10 +2551,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2559,10 +2562,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" t="s">
         <v>311</v>
-      </c>
-      <c r="C8" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2570,10 +2573,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2643,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2978,13 +2981,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B108" sqref="B108"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4838,7 +4841,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4847,7 +4850,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4855,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4864,7 +4867,7 @@
         <v>109</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4872,7 +4875,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -4881,7 +4884,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4889,7 +4892,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4898,7 +4901,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4906,7 +4909,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4915,7 +4918,24 @@
         <v>112</v>
       </c>
       <c r="E113" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>321</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5151,7 +5171,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5255,8 +5275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" activeCellId="1" sqref="D36 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5313,7 +5333,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -5336,7 +5356,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
@@ -5408,10 +5428,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!D8</f>

--- a/config_11.17/game_enter_btn_config.xlsx
+++ b/config_11.17/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1458,10 +1458,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#36;113;89;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_035_jhs",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1475,6 +1471,10 @@
   </si>
   <si>
     <t>"act_xrqtl_old",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#100;36;113;89;11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2506,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2989,11 +2989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B114" sqref="B114"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4932,7 +4932,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -4958,7 +4958,7 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5298,8 +5298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5379,7 +5379,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!D4</f>
